--- a/src/pages/User/Import/asset/user.en.xlsx
+++ b/src/pages/User/Import/asset/user.en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/project/nocalhost/nocalhost-web/src/pages/User/Import/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAB4FA2-FE63-0142-8665-B2EFDD5B4F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49F6B7-28F9-EF4E-ACB9-795D24217AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1500" windowWidth="32740" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>zhangsan5</t>
   </si>
   <si>
-    <t>Instructions for completing.
+    <t>Remarks.
 1. Do not modify the form structure.
 2. Fields marked in red are required, fields in black are optiona.
 3. Mail: required, the unique identification of the member, login nocalhost server use
@@ -472,7 +472,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>

--- a/src/pages/User/Import/asset/user.en.xlsx
+++ b/src/pages/User/Import/asset/user.en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/project/nocalhost/nocalhost-web/src/pages/User/Import/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49F6B7-28F9-EF4E-ACB9-795D24217AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CB7AC-9E07-CD45-9C8E-B7842D091C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1500" windowWidth="32740" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,13 +65,13 @@
     <t>zhangsan5</t>
   </si>
   <si>
-    <t>Remarks.
+    <t>Attention please: 
 1. Do not modify the form structure.
-2. Fields marked in red are required, fields in black are optiona.
-3. Mail: required, the unique identification of the member, login nocalhost server use
-4. User Name: Required, used to display in the system
-5. Cooperator DevSpace: Optional, a collaboration development space, manage ns operations, filled in nocalhost cluster/ns format, multiple split by newline
-6. Viewer DevSpace: Optional, a collaboration development space, read-only for ns, cannot install or uninstall applications,  filled in nocalhost cluster/ns format, multiple split by newline</t>
+2. Fields marked in red are required, fields in black are optional.
+3. Mail: required, the unique identification of the member, use for logining nocalhost server
+4. Username: Required, use to display in the system
+5. Cooperator DevSpace: Optional, a collaboration development space, manage namespace operations, filled in  cluster/ns format, split by newline
+6. Viewer DevSpace: Optional, a collaboration development space, read-only、cannot install or uninstall applications,  filled in cluster/ns format, split by newline</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -483,7 +483,7 @@
     <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="191" customHeight="1">
+    <row r="1" spans="1:4" ht="182" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
